--- a/documentation/gantt_chart.xlsx
+++ b/documentation/gantt_chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d1788031b08e836/Documents/Josh/University/Year 3/CM3203 - Individual Project/Identifying-Urban-Functional-Regions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d1788031b08e836/Documents/Josh/University/Year 3/CM3203 - Individual Project/Identifying-Urban-Functional-Regions/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_7AA85EDAAD95766C613252C9EB4A8FCE9D4E8CB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEF898A6-5C7D-4B45-983F-B301FA9ED432}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_7AA85EDAAD95766C613252C9EB4A8FCE9D4E8CB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2156729A-E941-4C20-BC7E-85A87BFE93FC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,7 +184,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,17 +203,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4E5A2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -291,8 +286,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FFC6C6C6"/>
@@ -300,113 +333,66 @@
       <top style="thin">
         <color rgb="FFC6C6C6"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,49 +417,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -491,6 +467,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,10 +761,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="C1:P23"/>
+  <dimension ref="C1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +782,7 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -841,148 +821,159 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="O4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="O5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="3:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="O6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="3:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="G7" s="10" t="s">
+      <c r="D7" s="7"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="O7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="3:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="H8" s="10" t="s">
+      <c r="D8" s="7"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="O8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="3:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20" t="s">
+      <c r="D9" s="7"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="O9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="K10" s="13" t="s">
+      <c r="D10" s="7"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="O10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="L11" s="12" t="s">
+      <c r="D11" s="7"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="O11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14" t="s">
+      <c r="D12" s="7"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="15"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="17"/>
       <c r="O13" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="19"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="3:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="9:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="9"/>
+    <row r="17" spans="9:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="9:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="9:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="9:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="9:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="9:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="9:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="7"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="M24" s="10"/>
+      <c r="N24" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
